--- a/Lecture_Mapping.xlsx
+++ b/Lecture_Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KK\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\내 드라이브\Research\Analysis\Lecture\시계열딥러닝\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340D7CCE-C578-4054-930A-59F227EDBDAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AF930F-5FDF-480D-B2FA-04F7ED3D90B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8250" yWindow="5850" windowWidth="28800" windowHeight="15435" xr2:uid="{FDDDD912-3CA3-4D85-AFD5-AEFE2EDBA230}"/>
+    <workbookView xWindow="33530" yWindow="4840" windowWidth="9560" windowHeight="6000" xr2:uid="{FDDDD912-3CA3-4D85-AFD5-AEFE2EDBA230}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Lecture1_DataAnalysisCycle_DataStatistics_KK.ipynb</t>
   </si>
@@ -101,15 +101,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Practice7_DataAnalysis_TSAutomation_KK.ipynb (신규)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>4/26 업데이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lecture1-1_Basic_RealDataAnalysis_KK.ipynb
+Lecture1-4_Basic_LimitationVision_KK.ipynb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lecture1-2_Basic_MathStatistics_KK.ipynb
+Lecture1-3_Basic_BigDataSmallData_KK.ipynb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lecture2-1_DataAnalysis_LearningAlgorithm_KK.ipynb
+Lecture2-2_DataAnalysis_BaseRegression_KK.ipynb
+Lecture2-4_DataAnalysis_BaseTimeSeries_KK.ipynb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lecture3-1_MachineLearning_ErrorDecomposition_KK.ipynb
+Lecture3-2_MachineLearning_Regularization_KK.ipynb
+Lecture3-3_MachineLearning_BaggingBoosting_KK.ipynb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lecture3-4_StatisticalLearning_TimeSeries_LinearUnivariate_KK.ipynb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lecture3-5_StatisticalLearning_TimeSeries_LinearMultivariate_KK.ipynb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lecture3-6_StatisticalLearning_TimeSeries_NonLinearUnivariate_KK.ipynb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lecture4_Algorithms_TimeSeries_WithDeepLearning_KK.ipynb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lecture4-1_DeepLearning_ArtificialIntelligent_KK.ipynb
+Lecture4-3_DeepLearning_TimeSeriesAlgorithms_KK.ipynb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Practice1-5_Basic_InputDataFrame_KK.ipynb</t>
+  </si>
+  <si>
+    <t>Practice1-3_Basic_InputNumpy_KK.ipynb</t>
+  </si>
+  <si>
+    <t>Practice2-4_DataAnalysis_BaseTimeSeries_KK.ipynb</t>
+  </si>
+  <si>
+    <t>Practice2-5_DataAnalysis_BaseTimeSeries_FeatureEngineering_KK.ipynb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Practice3-2_MachineLearning_RegularizationBaggingBoosting_TS_KK.ipynb</t>
+  </si>
+  <si>
+    <t>Practice3-4_StatisticalLearning_TimeSeries_LinearUnivariate_KK.ipynb</t>
+  </si>
+  <si>
+    <t>Practice3-4_StatisticalLearning_TimeSeries_AutomationProphet_KK.ipynb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Practice8_DataAnalysis_TSDeepLearning_KK</t>
+  </si>
+  <si>
+    <t>Practice7_DataAnalysis_TSAutomation_KK.ipynb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Practice4-3_DeepLearning_TimeSeriesAlgorithms(keras)_KK.ipynb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +218,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -151,7 +236,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -160,7 +245,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -174,143 +259,36 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,137 +604,203 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D701F556-DFAF-4B27-B95E-CE736F95C92D}">
-  <dimension ref="B1:C17"/>
+  <dimension ref="B2:D19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="54.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" ht="17.5" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D2" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="34" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B4" s="5"/>
-      <c r="C4" s="6" t="s">
+      <c r="D3" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
+      <c r="D4" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
+      <c r="D5" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6" t="s">
+      <c r="D6" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B7" s="3"/>
+      <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
+      <c r="D7" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
-      <c r="C9" s="6" t="s">
+      <c r="D8" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B9" s="3"/>
+      <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
+      <c r="D9" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="B10" s="6"/>
+      <c r="C10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
+      <c r="D11" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B12" s="7" t="s">
+      <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B13" s="7" t="s">
+      <c r="D13" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B14" s="7" t="s">
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="7" t="s">
+      <c r="D15" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B16" s="7" t="s">
+      <c r="D16" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="8"/>
-      <c r="C17" s="9" t="s">
-        <v>24</v>
+      <c r="D17" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Lecture_Mapping.xlsx
+++ b/Lecture_Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\내 드라이브\Research\Analysis\Lecture\시계열딥러닝\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\Lecture\All-About-Time-Series-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AF930F-5FDF-480D-B2FA-04F7ED3D90B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9A296C-9331-41CF-91E5-6EBDBCF0E7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33530" yWindow="4840" windowWidth="9560" windowHeight="6000" xr2:uid="{FDDDD912-3CA3-4D85-AFD5-AEFE2EDBA230}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{FDDDD912-3CA3-4D85-AFD5-AEFE2EDBA230}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
   <si>
     <t>Lecture1_DataAnalysisCycle_DataStatistics_KK.ipynb</t>
   </si>
@@ -179,6 +179,60 @@
   </si>
   <si>
     <t>Practice4-3_DeepLearning_TimeSeriesAlgorithms(keras)_KK.ipynb</t>
+  </si>
+  <si>
+    <t>2025-04-19 업데이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lecture2-1_DataAnalysis_LearningAlgorithm_KK.ipynb
+Lecture2-2_DataAnalysis_SupervisedRegression_KK.ipynb
+Lecture2-7_DataAnalysis_TimeSeries_KK.ipynb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lecture3-1_MachineLearning_SupervisedEvolution_KK.ipynb
+Lecture3-2_MachineLearning_SupervisedRegClass_KK.ipynb
+Lecture3-3_MachineLearning_SupervisedRegClassEnsemble_KK.ipynb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lecture4-1_DeepLearning_HistoryAI_KK.ipynb
+Lecture4-2_DeepLearning_AdvancedAI_KK.ipynb
+Lecture4-3_DeepLearning_BaseAlgorithms_KK.ipynb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Practice0_Installation_ColabPythonJupyter(3.12)_KK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Practice1-7_Basic_InputNumpy_KK.ipynb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Practice1-8_Basic_InputPandas_KK.ipynb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Practice2-7_DataAnalysis_TimeSeries_KK.ipynb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Practice2-7_DataAnalysis_TimeSeries_RealityMulticollinearity_KK.ipynb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Practice3-7_StatisticalLearning_TimeSeries_LinearUnivariate_KK.ipynb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Practice3-8_StatisticalLearning_TimeSeries_NeuralProphet_KK.ipynb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -284,11 +338,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -308,9 +362,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -348,7 +402,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -454,7 +508,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -596,7 +650,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -604,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D701F556-DFAF-4B27-B95E-CE736F95C92D}">
-  <dimension ref="B2:D19"/>
+  <dimension ref="B2:E19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -615,21 +669,25 @@
     <col min="2" max="2" width="54.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="60.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60.33203125" customWidth="1"/>
+    <col min="5" max="5" width="61.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:5" ht="17.5" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="B3" s="3" t="s">
+      <c r="E2" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -638,17 +696,23 @@
       <c r="D3" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="B4" s="3"/>
+      <c r="E3" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="B4" s="7"/>
       <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="E4" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="51" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -658,9 +722,12 @@
       <c r="D5" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="B6" s="3" t="s">
+      <c r="E5" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="51" x14ac:dyDescent="0.45">
+      <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -669,18 +736,24 @@
       <c r="D6" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B7" s="3"/>
+      <c r="E6" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B7" s="7"/>
       <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B8" s="3" t="s">
+      <c r="E7" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -689,26 +762,35 @@
       <c r="D8" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="3"/>
+      <c r="E8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B9" s="7"/>
       <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="B10" s="6"/>
+      <c r="E9" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="51" x14ac:dyDescent="0.45">
+      <c r="B10" s="3"/>
       <c r="C10" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="E10" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="17.5" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
@@ -718,8 +800,11 @@
       <c r="D11" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="E11" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="17.5" x14ac:dyDescent="0.45">
       <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
@@ -729,8 +814,11 @@
       <c r="D12" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="E12" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="17.5" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
@@ -740,8 +828,11 @@
       <c r="D13" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="E13" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="17.5" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
@@ -751,8 +842,11 @@
       <c r="D14" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="E14" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="17.5" x14ac:dyDescent="0.45">
       <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
@@ -762,8 +856,11 @@
       <c r="D15" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="E15" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="17.5" x14ac:dyDescent="0.45">
       <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
@@ -773,8 +870,11 @@
       <c r="D16" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="E16" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="17.5" x14ac:dyDescent="0.45">
       <c r="B17" s="4" t="s">
         <v>10</v>
       </c>
@@ -784,8 +884,11 @@
       <c r="D17" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="E17" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="17.5" x14ac:dyDescent="0.45">
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
         <v>42</v>
@@ -793,14 +896,20 @@
       <c r="D18" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="E18" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
